--- a/report/excelReport/PatientListApi.xlsx
+++ b/report/excelReport/PatientListApi.xlsx
@@ -11,6 +11,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/PatientListApi.xlsx
+++ b/report/excelReport/PatientListApi.xlsx
@@ -11,6 +11,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/PatientListApi.xlsx
+++ b/report/excelReport/PatientListApi.xlsx
@@ -11,20 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
